--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -95,28 +95,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.列表宽度100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工具栏默认有一个刷新功能
+2.工具栏变成一个部份页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.列表√
 2.添加√
-3.编辑
+3.编辑√
 4.删除
 5.权限设置
 6.搜索栏
 7.表单验证信息显示不完整
 8.字段长度校验
 9.生成列表封装成一个方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.列表宽度100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考滤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.工具栏默认有一个刷新功能
-2.工具栏变成一个部份页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -726,7 +726,7 @@
         <v>42999</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3"/>
@@ -783,10 +783,10 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -1622,12 +1622,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>861.83</v>
+      </c>
+      <c r="B1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>835.62</v>
+      </c>
+      <c r="B2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>800.34</v>
+      </c>
+      <c r="B3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>774.13</v>
+      </c>
+      <c r="B4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>646.12</v>
+      </c>
+      <c r="B5">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>636.04</v>
+      </c>
+      <c r="B6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>610.84</v>
+      </c>
+      <c r="B7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>568.5</v>
+      </c>
+      <c r="B8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>501.97</v>
+      </c>
+      <c r="B9">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>424.36</v>
+      </c>
+      <c r="B10">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>362.87</v>
+      </c>
+      <c r="B11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>324.56</v>
+      </c>
+      <c r="B12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>315.49</v>
+      </c>
+      <c r="B13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="B14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>模块</t>
   </si>
@@ -90,11 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统设置-
-角色管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.列表宽度100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,6 +101,16 @@
     <t>1.工具栏默认有一个刷新功能
 2.工具栏变成一个部份页</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置-
+角色管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基础设置-部门设置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.列表√
@@ -118,6 +123,13 @@
 8.字段长度校验
 9.生成列表封装成一个方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.列表
+2.添加
+3.编辑
+4.删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -713,10 +725,10 @@
     </row>
     <row r="6" spans="1:10" ht="134.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -726,19 +738,27 @@
         <v>42999</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:10" ht="54" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8">
+        <v>43035</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7"/>
       <c r="H7" s="3"/>
@@ -783,10 +803,10 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -113,23 +113,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.列表
+2.添加
+3.编辑
+4.删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.列表√
 2.添加√
 3.编辑√
 4.删除
 5.权限设置
-6.搜索栏
+6.搜索栏X
 7.表单验证信息显示不完整
 8.字段长度校验
 9.生成列表封装成一个方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.列表
-2.添加
-3.编辑
-4.删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -728,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -750,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -90,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.列表宽度100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>考滤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,12 +116,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">?1.列表宽度100%
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.列表√
 2.添加√
-3.编辑√
+3.编辑:新建窗口
 4.删除
-5.权限设置
-6.搜索栏X
+X5.权限设置
+X6.搜索栏
 7.表单验证信息显示不完整
 8.字段长度校验
 9.生成列表封装成一个方法</t>
@@ -233,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -725,7 +729,7 @@
     </row>
     <row r="6" spans="1:10" ht="134.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>21</v>
@@ -737,8 +741,8 @@
       <c r="E6" s="8">
         <v>42999</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
+      <c r="F6" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3"/>
@@ -747,10 +751,10 @@
     </row>
     <row r="7" spans="1:10" ht="54" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -803,10 +807,10 @@
     </row>
     <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -116,17 +116,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">?1.列表宽度100%
+    <t xml:space="preserve">
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.列表√
 2.添加√
-3.编辑:新建窗口
+3.编辑:弹出框,介面一分两半，一个是基础资料，一个是权限设置
 4.删除
-X5.权限设置
-X6.搜索栏
+6.搜索栏
 7.表单验证信息显示不完整
 8.字段长度校验
 9.生成列表封装成一个方法</t>
@@ -727,7 +726,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="134.25" customHeight="1">
+    <row r="6" spans="1:10" ht="141.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -123,12 +123,13 @@
   <si>
     <t>1.列表√
 2.添加√
-3.编辑:弹出框,介面一分两半，一个是基础资料，一个是权限设置
+3.编辑:弹出框,介面一分两半，一个是基础资料，一个是权限设置√
 4.删除
-6.搜索栏
-7.表单验证信息显示不完整
-8.字段长度校验
-9.生成列表封装成一个方法</t>
+5.搜索栏
+6.字段长度校验
+7.生成列表封装成一个方法
+8.权限加入列表权限,菜单-目录不用写控制器和方法了√
+9.列表增加一个全选，和打勾项，去掉号标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -127,9 +127,11 @@
 4.删除
 5.搜索栏
 6.字段长度校验
-7.生成列表封装成一个方法
+X7.生成列表封装成一个方法
 8.权限加入列表权限,菜单-目录不用写控制器和方法了√
-9.列表增加一个全选，和打勾项，去掉号标</t>
+9.列表增加一个全选，和打勾项√
+10.按钮分为多选按钮,单选按钮√
+11.菜单数据删除UIEvent,改成默认:方法名√</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +611,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -727,7 +729,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="141.75" customHeight="1">
+    <row r="6" spans="1:10" ht="164.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -116,11 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.列表√
 2.添加√
 3.编辑:弹出框,介面一分两半，一个是基础资料，一个是权限设置√
@@ -128,10 +123,16 @@
 5.搜索栏
 6.字段长度校验
 X7.生成列表封装成一个方法
-8.权限加入列表权限,菜单-目录不用写控制器和方法了√
-9.列表增加一个全选，和打勾项√
-10.按钮分为多选按钮,单选按钮√
-11.菜单数据删除UIEvent,改成默认:方法名√</t>
+8.列表增加一个全选，和打勾项√
+9.按钮分为表按钮,行按钮√
+10.菜单数据删除UIEvent,改成默认:方法名√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*注意
+表按钮:对整个数据都有效或所有数据行都能用得上的按钮，可以写一个通用规则
+行按钮：只对特定数据有效，只能自定义出现规则的按钮
+表单操作:对单体操作应用select(鼠标点选),对多体操作应用check(打勾项)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +612,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -734,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -744,7 +745,7 @@
         <v>42999</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3"/>

--- a/自定义任务.xlsx
+++ b/自定义任务.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>模块</t>
   </si>
@@ -84,7 +84,27 @@
 角色管理</t>
   </si>
   <si>
-    <t>1.列表√
+    <t>*注意
+表按钮:对整个数据都有效或所有数据行都能用得上的按钮，可以写一个通用规则
+行按钮：只对特定数据有效，只能自定义出现规则的按钮
+表单操作:对单体操作应用select(鼠标点选),对多体操作应用check(打勾项)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基础设置-部门设置
+</t>
+  </si>
+  <si>
+    <t>1.列表
+2.添加
+3.编辑
+4.删除</t>
+  </si>
+  <si>
+    <t>考滤</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.列表√
 2.添加√
 3.编辑:弹出框,介面一分两半，一个是基础资料，一个是权限设置√
 4.删除√
@@ -92,45 +112,66 @@
 6.字段长度校验
 7.加入一个默认刷新按钮
 8.列表增加一个全选，和打勾项√
-9.按钮分为表按钮,行按钮√
-10.菜单数据删除UIEvent,改成默认:方法名√
-11.分页有问题</t>
-  </si>
-  <si>
-    <t>*注意
-表按钮:对整个数据都有效或所有数据行都能用得上的按钮，可以写一个通用规则
-行按钮：只对特定数据有效，只能自定义出现规则的按钮
-表单操作:对单体操作应用select(鼠标点选),对多体操作应用check(打勾项)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基础设置-部门设置
 </t>
-  </si>
-  <si>
-    <t>1.列表
-2.添加
-3.编辑
-4.删除</t>
-  </si>
-  <si>
-    <t>考滤</t>
-  </si>
-  <si>
-    <t>1.工具栏默认有一个刷新功能
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.按钮分为表按钮,行按钮√
+10.菜单数据删除UIEvent,改成默认:方法名√</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.菜单图标改用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fontawesome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2.工具栏变成一个部份页</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,158 +206,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,194 +233,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,251 +257,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,9 +311,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -865,58 +338,14 @@
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1205,12 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1224,7 +652,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +676,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" ht="141" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="141" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +694,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" ht="75.75" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="75.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +718,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +738,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1328,12 +756,12 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" ht="165" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="169.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>16</v>
+      <c r="B6" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -1342,20 +770,20 @@
       <c r="E6" s="10">
         <v>42999</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="54" customHeight="1">
       <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
@@ -1370,7 +798,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
@@ -1382,7 +810,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="9"/>
@@ -1394,7 +822,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="9"/>
@@ -1406,855 +834,854 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" ht="41.25" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="41.25" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19"/>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19"/>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19"/>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="19"/>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="19"/>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="19"/>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="19"/>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="19"/>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="19"/>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="19"/>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="19"/>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="19"/>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="19"/>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="19"/>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="24"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="24"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="24"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="24"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="24"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="24"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="24"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="24"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="24"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="24"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="24"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="24"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="24"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="24"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="24"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="24"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="24"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="24"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="24"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="24"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="24"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="24"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="24"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="24"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="24"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="24"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="24"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="23"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="24"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="24"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="23"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="24"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="24"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="23"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="24"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="24"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="24"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="23"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="24"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="23"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="24"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="24"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="23"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -2362,7 +1789,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>303.4</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="B14">
         <v>275</v>
@@ -2376,31 +1803,28 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2">
       <c r="B16">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>